--- a/Day2_Coding_Assignment/Ayush-complexityChart.xlsx
+++ b/Day2_Coding_Assignment/Ayush-complexityChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Cse 5th Sem\C\Day2_Coding_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51F604-51EE-4D42-AA68-B986E6B1DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8238C-716E-4729-A474-3411213B9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C5CEA33-EB44-4EAB-9D5B-13E8DEC1F1A2}"/>
   </bookViews>
@@ -115,6 +115,2393 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Bubble sort run time analysis</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BUBBLE SORT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C205-4137-93CA-A35ACEED99CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BUBBLE SORT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASCENDING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C205-4137-93CA-A35ACEED99CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BUBBLE SORT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DESCENDING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C205-4137-93CA-A35ACEED99CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="80407488"/>
+        <c:axId val="80407904"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1:$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SELECTION SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RANDOM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$3:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SELECTION SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$3:$F$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$1:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>SELECTION SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DESCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$3:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>MERGE SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RANDOM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$3:$H$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$1:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>MERGE SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$3:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$1:$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>MERGE SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DESCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$3:$J$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$1:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>QUICK SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RANDOM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$3:$K$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$1:$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>QUICK SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$3:$L$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$1:$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>QUICK SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DESCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$3:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$N$1:$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>INSERTION SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>RANDOM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$N$3:$N$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$1:$O$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>INSERTION SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ASCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$3:$O$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$P$1:$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>INSERTION SORT</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>DESCENDING</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>28000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$P$3:$P$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-C205-4137-93CA-A35ACEED99CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80407488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80407904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80407904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80407488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91A01B3-4665-46CC-AEF5-97AA1C906624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +2804,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,13 +2905,13 @@
         <v>8000</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>56</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -532,13 +2919,13 @@
         <v>12000</v>
       </c>
       <c r="B4">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -546,13 +2933,13 @@
         <v>16000</v>
       </c>
       <c r="B5">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>580</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -560,13 +2947,13 @@
         <v>20000</v>
       </c>
       <c r="B6">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="D6">
-        <v>882</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -574,13 +2961,13 @@
         <v>24000</v>
       </c>
       <c r="B7">
-        <v>1386</v>
+        <v>1350</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>474</v>
       </c>
       <c r="D7">
-        <v>1263</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -588,13 +2975,13 @@
         <v>28000</v>
       </c>
       <c r="B8">
-        <v>1903</v>
+        <v>1870</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>645</v>
       </c>
       <c r="D8">
-        <v>1735</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -602,13 +2989,13 @@
         <v>32000</v>
       </c>
       <c r="B9">
-        <v>2450</v>
+        <v>2474</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>871</v>
       </c>
       <c r="D9">
-        <v>2251</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -616,13 +3003,13 @@
         <v>36000</v>
       </c>
       <c r="B10">
-        <v>3177</v>
+        <v>3186</v>
       </c>
       <c r="C10">
-        <v>234</v>
+        <v>1052</v>
       </c>
       <c r="D10">
-        <v>2837</v>
+        <v>2784</v>
       </c>
     </row>
   </sheetData>
@@ -636,5 +3023,6 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Day2_Coding_Assignment/Ayush-complexityChart.xlsx
+++ b/Day2_Coding_Assignment/Ayush-complexityChart.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Cse 5th Sem\C\Day2_Coding_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8238C-716E-4729-A474-3411213B9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B42A119-C8CE-43C7-9764-40B83833C689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C5CEA33-EB44-4EAB-9D5B-13E8DEC1F1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$4:$C$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$4:$D$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4:$C$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$4:$D$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$4:$A$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$4:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -92,10 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,18 +170,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Bubble sort run time analysis</a:t>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Selection sort runtime analysis</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-IN"/>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2622707786526684"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -195,21 +221,18 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BUBBLE SORT</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>RANDOM</c:v>
                 </c:pt>
               </c:strCache>
@@ -225,78 +248,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>28000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>36000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>314</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>940</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1350</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1870</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2474</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3186</c:v>
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C205-4137-93CA-A35ACEED99CD}"/>
+              <c16:uniqueId val="{00000000-AB1B-40FD-A1C0-D95F08E21F02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -305,13 +346,10 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BUBBLE SORT</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>ASCENDING</c:v>
                 </c:pt>
               </c:strCache>
@@ -327,78 +365,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>28000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>36000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:f>Sheet1!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>211</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>474</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>645</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>871</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1052</c:v>
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C205-4137-93CA-A35ACEED99CD}"/>
+              <c16:uniqueId val="{00000001-AB1B-40FD-A1C0-D95F08E21F02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -407,13 +463,10 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BUBBLE SORT</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>DESCENDING</c:v>
                 </c:pt>
               </c:strCache>
@@ -429,78 +482,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>28000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>36000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:f>Sheet1!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>305</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>545</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>858</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1245</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1681</c:v>
+                  <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2216</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2784</c:v>
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C205-4137-93CA-A35ACEED99CD}"/>
+              <c16:uniqueId val="{00000002-AB1B-40FD-A1C0-D95F08E21F02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -512,1218 +583,71 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="80407488"/>
-        <c:axId val="80407904"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1:$E$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>SELECTION SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>RANDOM</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$3:$E$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1:$F$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>SELECTION SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$3:$F$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$1:$G$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>SELECTION SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DESCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$3:$G$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$1:$H$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>MERGE SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>RANDOM</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$3:$H$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$1:$I$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>MERGE SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$3:$I$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$1:$J$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>MERGE SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DESCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$3:$J$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$1:$K$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>QUICK SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>RANDOM</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$3:$K$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$1:$L$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>QUICK SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$3:$L$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$1:$M$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>QUICK SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DESCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$3:$M$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$1:$N$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>INSERTION SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>RANDOM</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$3:$N$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$1:$O$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>INSERTION SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ASCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$3:$O$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000E-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="14"/>
-                <c:order val="14"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$1:$P$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>INSERTION SORT</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>DESCENDING</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>28000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>32000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>36000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$3:$P$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000F-C205-4137-93CA-A35ACEED99CD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="80407488"/>
+        <c:axId val="893758400"/>
+        <c:axId val="893765056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="893758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1761,17 +685,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80407904"/>
+        <c:crossAx val="893765056"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="80407904"/>
+        <c:axId val="893765056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1789,6 +711,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1820,9 +797,1521 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80407488"/>
+        <c:crossAx val="893758400"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Bubble sort runtime analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A677-4C70-B4FC-07F8544928B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASCENDING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A677-4C70-B4FC-07F8544928B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DESCENDING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A677-4C70-B4FC-07F8544928B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="993422688"/>
+        <c:axId val="993421440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="993422688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993421440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="993421440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993422688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Insertion sort runtime analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2999-46A4-B0B9-1F0A235ECDAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASCENDING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2999-46A4-B0B9-1F0A235ECDAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DESCENDING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2999-46A4-B0B9-1F0A235ECDAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="993423104"/>
+        <c:axId val="993411456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="993423104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993411456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="993411456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993423104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1947,8 +2436,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2056,11 +2625,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2071,11 +2635,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2107,9 +2666,1012 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2467,23 +4029,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>957649</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>10298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91A01B3-4665-46CC-AEF5-97AA1C906624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E031BE53-C4C6-49D8-97A8-3276593E8922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,6 +4058,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247134</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175053</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702E3993-192A-487A-8220-C0D3932B3294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8855</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>597243</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10298</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7933E8F2-5135-4794-8CAE-3DD8C5CC14DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2801,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B1E010-5DAF-4159-82F6-AA407D7CA7C6}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,31 +4461,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2901,115 +4535,291 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>8000</v>
+      <c r="A3" s="2">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="B4">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>305</v>
+        <v>190</v>
+      </c>
+      <c r="E4">
+        <v>108</v>
+      </c>
+      <c r="F4">
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <v>83</v>
+      </c>
+      <c r="N4">
+        <v>82</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="B5">
-        <v>579</v>
+        <v>424</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="D5">
-        <v>545</v>
+        <v>409</v>
+      </c>
+      <c r="E5">
+        <v>174</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
+      </c>
+      <c r="G5">
+        <v>166</v>
+      </c>
+      <c r="N5">
+        <v>106</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="B6">
-        <v>940</v>
+        <v>779</v>
       </c>
       <c r="C6">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="D6">
-        <v>858</v>
+        <v>737</v>
+      </c>
+      <c r="E6">
+        <v>298</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>287</v>
+      </c>
+      <c r="N6">
+        <v>182</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="B7">
-        <v>1350</v>
+        <v>1221</v>
       </c>
       <c r="C7">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="D7">
-        <v>1245</v>
+        <v>1104</v>
+      </c>
+      <c r="E7">
+        <v>462</v>
+      </c>
+      <c r="F7">
+        <v>458</v>
+      </c>
+      <c r="G7">
+        <v>436</v>
+      </c>
+      <c r="N7">
+        <v>272</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="B8">
-        <v>1870</v>
+        <v>1773</v>
       </c>
       <c r="C8">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D8">
-        <v>1681</v>
+        <v>1585</v>
+      </c>
+      <c r="E8">
+        <v>651</v>
+      </c>
+      <c r="F8">
+        <v>655</v>
+      </c>
+      <c r="G8">
+        <v>629</v>
+      </c>
+      <c r="N8">
+        <v>379</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="B9">
-        <v>2474</v>
+        <v>2428</v>
       </c>
       <c r="C9">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="D9">
-        <v>2216</v>
+        <v>2165</v>
+      </c>
+      <c r="E9">
+        <v>888</v>
+      </c>
+      <c r="F9">
+        <v>890</v>
+      </c>
+      <c r="G9">
+        <v>848</v>
+      </c>
+      <c r="N9">
+        <v>513</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="B10">
         <v>3186</v>
       </c>
       <c r="C10">
-        <v>1052</v>
+        <v>1093</v>
       </c>
       <c r="D10">
-        <v>2784</v>
+        <v>2874</v>
+      </c>
+      <c r="E10">
+        <v>1148</v>
+      </c>
+      <c r="F10">
+        <v>1149</v>
+      </c>
+      <c r="G10">
+        <v>1100</v>
+      </c>
+      <c r="N10">
+        <v>672</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>36000</v>
+      </c>
+      <c r="B11">
+        <v>4127</v>
+      </c>
+      <c r="C11">
+        <v>1418</v>
+      </c>
+      <c r="D11">
+        <v>3672</v>
+      </c>
+      <c r="E11">
+        <v>1462</v>
+      </c>
+      <c r="F11">
+        <v>1451</v>
+      </c>
+      <c r="G11">
+        <v>1394</v>
+      </c>
+      <c r="N11">
+        <v>832</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1630</v>
       </c>
     </row>
   </sheetData>
